--- a/pred_ohlcv/54_21/2019-10-31 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 LINK ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-2433.814734109816</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2135.498157477062</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2132.498157477062</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2111.498709327701</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2111.498709327701</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2099.498709327701</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2099.498709327701</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2082.498856386524</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2664.108856386525</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2314.108856386525</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2409.143956386525</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2409.143956386525</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2411.143956386525</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3583.143956386525</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3583.143956386525</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3570.143956386525</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3660.731956386525</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-4164.174456386525</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-28636.72420983931</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-27316.19090983931</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-27316.19090983931</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-27443.40700983931</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-27313.40710983931</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-26493.38970983931</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-28715.03417539115</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-28283.03417539115</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-28270.03443897883</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-28269.03443897883</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-30638.28443897883</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-30719.63103897883</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-29556.39663897883</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-29556.39663897883</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-30851.64553897883</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-30620.12383897883</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-30943.17313897883</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-30942.17313897883</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-31063.17313897883</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-31070.50293897883</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-31072.50293897883</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-33327.50293897883</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-33069.83293897883</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-32869.83293897883</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-32383.86483897883</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-32387.86483897883</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-32387.86483897883</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-31344.54846216627</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-31475.46112205931</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-31061.54458872598</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-31061.54458872598</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-30562.43183191535</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-31573.07953191535</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-30661.56033191536</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-30709.94413191536</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-30371.94413191536</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-29239.79773191535</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-29239.79773191535</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-29168.79773191535</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-29168.79773191535</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-29602.90093191536</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-29647.21573191536</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-29509.21583191536</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-34622.28523718825</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-34484.28523718825</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-34414.65663718825</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 LINK ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-2635.892134109816</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2433.814734109816</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2132.498157477062</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2111.498709327701</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2111.498709327701</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2099.498709327701</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2099.498709327701</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2082.498856386524</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2664.108856386525</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2314.108856386525</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2409.143956386525</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2409.143956386525</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2411.143956386525</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3583.143956386525</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3583.143956386525</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3570.143956386525</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3660.731956386525</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-4164.174456386525</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-28816.91040983931</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-28636.72420983931</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-27316.19090983931</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-27316.19090983931</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-27443.40700983931</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-27313.40710983931</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-26493.38970983931</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-25551.38970983931</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-25571.38970983931</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-28715.03417539115</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-28283.03417539115</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-28270.03443897883</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-28269.03443897883</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-30638.28443897883</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-30719.63103897883</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-29556.39663897883</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-29556.39663897883</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-30851.64553897883</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-30620.12383897883</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-30943.17313897883</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-30942.17313897883</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-31063.17313897883</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-31070.50293897883</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-31072.50293897883</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-33327.50293897883</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-33069.83293897883</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-32869.83293897883</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-32383.86483897883</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-32387.86483897883</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-32387.86483897883</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-31344.54846216627</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-31475.46112205931</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-31061.54458872598</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-31061.54458872598</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-30562.43183191535</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-31573.07953191535</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-30661.56033191536</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-30709.94413191536</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-30371.94413191536</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-29239.79773191535</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-29239.79773191535</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-29168.79773191535</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-29168.79773191535</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-29602.90093191536</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-29647.21573191536</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-29509.21583191536</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-29891.04523099035</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-34622.28523718825</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-34484.28523718825</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-34414.65663718825</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
